--- a/outputs/Coefficients Arthropoda Guilds.xlsx
+++ b/outputs/Coefficients Arthropoda Guilds.xlsx
@@ -409,19 +409,19 @@
         </is>
       </c>
       <c r="C2">
-        <v>3.709122556021998</v>
+        <v>3.709122556022001</v>
       </c>
       <c r="D2">
-        <v>0.2375615148018109</v>
+        <v>0.2509434138990022</v>
       </c>
       <c r="E2">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F2">
-        <v>15.61331413093736</v>
+        <v>14.78071290412436</v>
       </c>
       <c r="G2">
-        <v>4.384082457026941e-30</v>
+        <v>8.963750834731611e-30</v>
       </c>
     </row>
     <row r="3">
@@ -436,19 +436,19 @@
         </is>
       </c>
       <c r="C3">
-        <v>-1.375195758102649</v>
+        <v>-1.37519575810265</v>
       </c>
       <c r="D3">
-        <v>0.2793656519051448</v>
+        <v>0.2916391618759445</v>
       </c>
       <c r="E3">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F3">
-        <v>-4.922565636557137</v>
+        <v>-4.715401557379394</v>
       </c>
       <c r="G3">
-        <v>2.907132968756942e-06</v>
+        <v>6.049436621476373e-06</v>
       </c>
     </row>
     <row r="4">
@@ -463,19 +463,19 @@
         </is>
       </c>
       <c r="C4">
-        <v>-1.567046981133507</v>
+        <v>-1.67320781275692</v>
       </c>
       <c r="D4">
-        <v>0.2850384305789963</v>
+        <v>0.2916391618759449</v>
       </c>
       <c r="E4">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F4">
-        <v>-5.497669131668935</v>
+        <v>-5.737253536164857</v>
       </c>
       <c r="G4">
-        <v>2.382922076332612e-07</v>
+        <v>6.267921979244479e-08</v>
       </c>
     </row>
     <row r="5">
@@ -490,19 +490,19 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.4583307572433198</v>
+        <v>0.4123782703931135</v>
       </c>
       <c r="D5">
-        <v>0.3184729172931703</v>
+        <v>0.3321418198092226</v>
       </c>
       <c r="E5">
         <v>47</v>
       </c>
       <c r="F5">
-        <v>1.439151439120342</v>
+        <v>1.241572863754337</v>
       </c>
       <c r="G5">
-        <v>0.1567346560182987</v>
+        <v>0.2205547794832406</v>
       </c>
     </row>
     <row r="6">
@@ -517,19 +517,19 @@
         </is>
       </c>
       <c r="C6">
-        <v>-0.1969181719572889</v>
+        <v>-0.1969181719572888</v>
       </c>
       <c r="D6">
-        <v>0.2793656520781956</v>
+        <v>0.2916391622112646</v>
       </c>
       <c r="E6">
         <v>47</v>
       </c>
       <c r="F6">
-        <v>-0.7048761023140049</v>
+        <v>-0.6752116912701887</v>
       </c>
       <c r="G6">
-        <v>0.4843659127058971</v>
+        <v>0.5028497565616405</v>
       </c>
     </row>
     <row r="7">
@@ -544,19 +544,19 @@
         </is>
       </c>
       <c r="C7">
-        <v>-0.2822255176973865</v>
+        <v>-0.2986130098600405</v>
       </c>
       <c r="D7">
-        <v>0.2708289769570001</v>
+        <v>0.2827104268405779</v>
       </c>
       <c r="E7">
         <v>47</v>
       </c>
       <c r="F7">
-        <v>-1.042080211905079</v>
+        <v>-1.056250429802613</v>
       </c>
       <c r="G7">
-        <v>0.3027052937534848</v>
+        <v>0.2962530330254067</v>
       </c>
     </row>
     <row r="8">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="C8">
-        <v>-0.6589080087510316</v>
+        <v>-0.6752955007989576</v>
       </c>
       <c r="D8">
-        <v>0.2708289769574752</v>
+        <v>0.2827104268405778</v>
       </c>
       <c r="E8">
         <v>47</v>
       </c>
       <c r="F8">
-        <v>-2.432930243112396</v>
+        <v>-2.388647310768488</v>
       </c>
       <c r="G8">
-        <v>0.01883655220982697</v>
+        <v>0.02097844040753366</v>
       </c>
     </row>
     <row r="9">
@@ -598,19 +598,19 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.8328137048232537</v>
+        <v>0.8328137048232547</v>
       </c>
       <c r="D9">
-        <v>0.4465968666458345</v>
+        <v>0.4662174286523852</v>
       </c>
       <c r="E9">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F9">
-        <v>1.864799704212214</v>
+        <v>1.78632040254378</v>
       </c>
       <c r="G9">
-        <v>0.06478123503822145</v>
+        <v>0.07634296481041693</v>
       </c>
     </row>
     <row r="10">
@@ -625,19 +625,19 @@
         </is>
       </c>
       <c r="C10">
-        <v>-0.7300802428858625</v>
+        <v>-0.9156441419011642</v>
       </c>
       <c r="D10">
-        <v>0.4696627020570704</v>
+        <v>0.4662174286523851</v>
       </c>
       <c r="E10">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F10">
-        <v>-1.554477797977553</v>
+        <v>-1.963985225837352</v>
       </c>
       <c r="G10">
-        <v>0.1228423522401923</v>
+        <v>0.05163314572142791</v>
       </c>
     </row>
     <row r="11">
@@ -652,19 +652,19 @@
         </is>
       </c>
       <c r="C11">
-        <v>-0.5115837293469622</v>
+        <v>-0.698339684855694</v>
       </c>
       <c r="D11">
-        <v>0.4038576130967566</v>
+        <v>0.4124400580440826</v>
       </c>
       <c r="E11">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F11">
-        <v>-1.266742814191784</v>
+        <v>-1.693190734594101</v>
       </c>
       <c r="G11">
-        <v>0.2078292356462629</v>
+        <v>0.09277788051529093</v>
       </c>
     </row>
     <row r="12">
@@ -679,19 +679,19 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.1038012807158465</v>
+        <v>0.2099621123392574</v>
       </c>
       <c r="D12">
-        <v>0.3991141119671462</v>
+        <v>0.4124400580440828</v>
       </c>
       <c r="E12">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F12">
-        <v>0.2600792044266054</v>
+        <v>0.5090730355702162</v>
       </c>
       <c r="G12">
-        <v>0.7952718287636209</v>
+        <v>0.6115509436428939</v>
       </c>
     </row>
     <row r="13">
@@ -706,19 +706,19 @@
         </is>
       </c>
       <c r="C13">
-        <v>-0.3306980988326367</v>
+        <v>-0.732674270442648</v>
       </c>
       <c r="D13">
-        <v>0.39831863386482</v>
+        <v>0.3993433690283886</v>
       </c>
       <c r="E13">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F13">
-        <v>-0.8302350699085495</v>
+        <v>-1.834697474069147</v>
       </c>
       <c r="G13">
-        <v>0.408141188087907</v>
+        <v>0.06880206311083216</v>
       </c>
     </row>
     <row r="14">
@@ -733,19 +733,19 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.4758204104189679</v>
+        <v>0.581981242042379</v>
       </c>
       <c r="D14">
-        <v>0.3866994032039299</v>
+        <v>0.3993433690283884</v>
       </c>
       <c r="E14">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F14">
-        <v>1.230465851451131</v>
+        <v>1.457345450503793</v>
       </c>
       <c r="G14">
-        <v>0.2210556288029452</v>
+        <v>0.1473959403476678</v>
       </c>
     </row>
     <row r="15">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C15">
-        <v>-0.4647618875702463</v>
+        <v>-1.076295156354005</v>
       </c>
       <c r="D15">
-        <v>0.4401927830095244</v>
+        <v>0.3993433690283886</v>
       </c>
       <c r="E15">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F15">
-        <v>-1.055814419293172</v>
+        <v>-2.695162208333783</v>
       </c>
       <c r="G15">
-        <v>0.2932854001551908</v>
+        <v>0.007951064494283962</v>
       </c>
     </row>
     <row r="16">
@@ -787,19 +787,19 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.8378337927329569</v>
+        <v>0.9439946243563682</v>
       </c>
       <c r="D16">
-        <v>0.3866994032039298</v>
+        <v>0.3993433690283885</v>
       </c>
       <c r="E16">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F16">
-        <v>2.166628098702073</v>
+        <v>2.363867031655311</v>
       </c>
       <c r="G16">
-        <v>0.03234462860775099</v>
+        <v>0.01954359296521462</v>
       </c>
     </row>
   </sheetData>
@@ -864,19 +864,19 @@
         </is>
       </c>
       <c r="C2">
-        <v>2.849556535606068</v>
+        <v>2.023124080733552</v>
       </c>
       <c r="D2">
-        <v>0.2440064400602667</v>
+        <v>0.2614013047505538</v>
       </c>
       <c r="E2">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="F2">
-        <v>11.67820216098502</v>
+        <v>7.739533215659154</v>
       </c>
       <c r="G2">
-        <v>3.375437815192161e-20</v>
+        <v>2.299613696422091e-12</v>
       </c>
     </row>
     <row r="3">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="C3">
-        <v>-0.1576626495244721</v>
+        <v>0.4854102535533877</v>
       </c>
       <c r="D3">
-        <v>0.2991078435664292</v>
+        <v>0.3474753087115118</v>
       </c>
       <c r="E3">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="F3">
-        <v>-0.5271097128198736</v>
+        <v>1.39696329892722</v>
       </c>
       <c r="G3">
-        <v>0.5993208788430431</v>
+        <v>0.164768688503339</v>
       </c>
     </row>
     <row r="4">
@@ -918,19 +918,19 @@
         </is>
       </c>
       <c r="C4">
-        <v>-1.114478380934484</v>
+        <v>-0.5595760900365981</v>
       </c>
       <c r="D4">
-        <v>0.3057819298161727</v>
+        <v>0.3474753087115122</v>
       </c>
       <c r="E4">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="F4">
-        <v>-3.644683587432641</v>
+        <v>-1.610405332429478</v>
       </c>
       <c r="G4">
-        <v>0.0004325240662880123</v>
+        <v>0.1096981936039241</v>
       </c>
     </row>
     <row r="5">
@@ -945,19 +945,19 @@
         </is>
       </c>
       <c r="C5">
-        <v>-0.8132600908019626</v>
+        <v>-0.8431672080022977</v>
       </c>
       <c r="D5">
-        <v>0.3971097906398889</v>
+        <v>0.399445738994557</v>
       </c>
       <c r="E5">
         <v>47</v>
       </c>
       <c r="F5">
-        <v>-2.047947721186888</v>
+        <v>-2.110842914796462</v>
       </c>
       <c r="G5">
-        <v>0.04617521953481611</v>
+        <v>0.04013374894032817</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="C6">
-        <v>-0.8740129537067488</v>
+        <v>-0.2822658623608013</v>
       </c>
       <c r="D6">
-        <v>0.3058462262998654</v>
+        <v>0.3515761614558942</v>
       </c>
       <c r="E6">
         <v>47</v>
       </c>
       <c r="F6">
-        <v>-2.857687551945883</v>
+        <v>-0.8028583655726953</v>
       </c>
       <c r="G6">
-        <v>0.006339833501281096</v>
+        <v>0.4260980596450233</v>
       </c>
     </row>
     <row r="7">
@@ -999,19 +999,19 @@
         </is>
       </c>
       <c r="C7">
-        <v>-1.330608735534895</v>
+        <v>-0.9955529318315979</v>
       </c>
       <c r="D7">
-        <v>0.3129185044734946</v>
+        <v>0.3410963321341158</v>
       </c>
       <c r="E7">
         <v>47</v>
       </c>
       <c r="F7">
-        <v>-4.252253275253663</v>
+        <v>-2.918685538489332</v>
       </c>
       <c r="G7">
-        <v>9.978296140337869e-05</v>
+        <v>0.005379480881370838</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         </is>
       </c>
       <c r="C8">
-        <v>-1.041941384835124</v>
+        <v>-0.8838949798807335</v>
       </c>
       <c r="D8">
-        <v>0.3208866723310478</v>
+        <v>0.3410963321341158</v>
       </c>
       <c r="E8">
         <v>47</v>
       </c>
       <c r="F8">
-        <v>-3.247069681224369</v>
+        <v>-2.591335340226392</v>
       </c>
       <c r="G8">
-        <v>0.002153913643903071</v>
+        <v>0.0126962762072855</v>
       </c>
     </row>
     <row r="9">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.3091719476923758</v>
+        <v>0.5235512388707199</v>
       </c>
       <c r="D9">
-        <v>0.498735220205071</v>
+        <v>0.5554776796971621</v>
       </c>
       <c r="E9">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="F9">
-        <v>0.6199119997285329</v>
+        <v>0.9425243497743274</v>
       </c>
       <c r="G9">
-        <v>0.5367692839616867</v>
+        <v>0.347646071099715</v>
       </c>
     </row>
     <row r="10">
@@ -1080,19 +1080,19 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.7077871205306593</v>
+        <v>1.010337023888977</v>
       </c>
       <c r="D10">
-        <v>0.503672418607816</v>
+        <v>0.5554776796971622</v>
       </c>
       <c r="E10">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="F10">
-        <v>1.405252887356885</v>
+        <v>1.81886160473594</v>
       </c>
       <c r="G10">
-        <v>0.1631407678961147</v>
+        <v>0.07119929280264707</v>
       </c>
     </row>
     <row r="11">
@@ -1107,19 +1107,19 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.5925586892064215</v>
+        <v>0.1841711496551308</v>
       </c>
       <c r="D11">
-        <v>0.4095279322496366</v>
+        <v>0.4914042941695975</v>
       </c>
       <c r="E11">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="F11">
-        <v>1.446931070003827</v>
+        <v>0.3747853892208116</v>
       </c>
       <c r="G11">
-        <v>0.1511401999053515</v>
+        <v>0.7084215384120127</v>
       </c>
     </row>
     <row r="12">
@@ -1134,19 +1134,19 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.3454470825087724</v>
+        <v>-0.150781146230173</v>
       </c>
       <c r="D12">
-        <v>0.4219819038169121</v>
+        <v>0.4914042941695975</v>
       </c>
       <c r="E12">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="F12">
-        <v>0.8186300867030867</v>
+        <v>-0.3068372580768172</v>
       </c>
       <c r="G12">
-        <v>0.4150041212358976</v>
+        <v>0.7594507517785343</v>
       </c>
     </row>
     <row r="13">
@@ -1161,19 +1161,19 @@
         </is>
       </c>
       <c r="C13">
-        <v>1.377710232050552</v>
+        <v>1.227829490337983</v>
       </c>
       <c r="D13">
-        <v>0.4091375886786095</v>
+        <v>0.4758001618934159</v>
       </c>
       <c r="E13">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="F13">
-        <v>3.367351888884468</v>
+        <v>2.580557109211387</v>
       </c>
       <c r="G13">
-        <v>0.001089349836777654</v>
+        <v>0.01095698240816703</v>
       </c>
     </row>
     <row r="14">
@@ -1188,19 +1188,19 @@
         </is>
       </c>
       <c r="C14">
-        <v>1.163936741078218</v>
+        <v>0.9181276076526893</v>
       </c>
       <c r="D14">
-        <v>0.4194685367922023</v>
+        <v>0.4758001618934155</v>
       </c>
       <c r="E14">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="F14">
-        <v>2.774789141467393</v>
+        <v>1.929649632734593</v>
       </c>
       <c r="G14">
-        <v>0.006627319329429568</v>
+        <v>0.05579567753540805</v>
       </c>
     </row>
     <row r="15">
@@ -1215,19 +1215,19 @@
         </is>
       </c>
       <c r="C15">
-        <v>1.193512315937583</v>
+        <v>1.222880591057503</v>
       </c>
       <c r="D15">
-        <v>0.4147086104153381</v>
+        <v>0.475800161893416</v>
       </c>
       <c r="E15">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="F15">
-        <v>2.877954028353207</v>
+        <v>2.570155895263105</v>
       </c>
       <c r="G15">
-        <v>0.004923455957730828</v>
+        <v>0.0112749334028042</v>
       </c>
     </row>
     <row r="16">
@@ -1242,19 +1242,19 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.6535376462028497</v>
+        <v>0.2053001943604461</v>
       </c>
       <c r="D16">
-        <v>0.4477087639588044</v>
+        <v>0.4758001618934157</v>
       </c>
       <c r="E16">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="F16">
-        <v>1.459738336198807</v>
+        <v>0.4314840784069248</v>
       </c>
       <c r="G16">
-        <v>0.1475931220746238</v>
+        <v>0.6668203239673158</v>
       </c>
     </row>
   </sheetData>
@@ -1319,19 +1319,19 @@
         </is>
       </c>
       <c r="C2">
-        <v>2.555106177104222</v>
+        <v>2.562482613443603</v>
       </c>
       <c r="D2">
-        <v>0.1439654616426267</v>
+        <v>0.1733646784348697</v>
       </c>
       <c r="E2">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="F2">
-        <v>17.74804976103852</v>
+        <v>14.78088060715485</v>
       </c>
       <c r="G2">
-        <v>4.433454285903655e-36</v>
+        <v>1.46662461659928e-33</v>
       </c>
     </row>
     <row r="3">
@@ -1346,19 +1346,19 @@
         </is>
       </c>
       <c r="C3">
-        <v>-1.320892818230389</v>
+        <v>-1.515295408563688</v>
       </c>
       <c r="D3">
-        <v>0.1955018248625736</v>
+        <v>0.221221824164793</v>
       </c>
       <c r="E3">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="F3">
-        <v>-6.756421937027442</v>
+        <v>-6.849665101011513</v>
       </c>
       <c r="G3">
-        <v>4.68262247106251e-10</v>
+        <v>9.648646493116771e-11</v>
       </c>
     </row>
     <row r="4">
@@ -1373,19 +1373,19 @@
         </is>
       </c>
       <c r="C4">
-        <v>-1.280853782083543</v>
+        <v>-1.554589687314918</v>
       </c>
       <c r="D4">
-        <v>0.2012242935183395</v>
+        <v>0.2212218241647931</v>
       </c>
       <c r="E4">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="F4">
-        <v>-6.365303908828518</v>
+        <v>-7.027288981022367</v>
       </c>
       <c r="G4">
-        <v>3.305649118447005e-09</v>
+        <v>3.52866341805944e-11</v>
       </c>
     </row>
     <row r="5">
@@ -1400,19 +1400,19 @@
         </is>
       </c>
       <c r="C5">
-        <v>-1.485460397279369</v>
+        <v>-2.2206429760603</v>
       </c>
       <c r="D5">
-        <v>0.2784843677118304</v>
+        <v>0.2212218241647927</v>
       </c>
       <c r="E5">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="F5">
-        <v>-5.334088981312197</v>
+        <v>-10.03808274542614</v>
       </c>
       <c r="G5">
-        <v>4.301012835040884e-07</v>
+        <v>2.406165027802599e-19</v>
       </c>
     </row>
     <row r="6">
@@ -1427,19 +1427,19 @@
         </is>
       </c>
       <c r="C6">
-        <v>0.5368502660513661</v>
+        <v>0.5183371461283373</v>
       </c>
       <c r="D6">
-        <v>0.2144594286584035</v>
+        <v>0.2557774217694737</v>
       </c>
       <c r="E6">
         <v>46</v>
       </c>
       <c r="F6">
-        <v>2.503271921452682</v>
+        <v>2.026516424094315</v>
       </c>
       <c r="G6">
-        <v>0.0159179535168797</v>
+        <v>0.04853225426125234</v>
       </c>
     </row>
     <row r="7">
@@ -1454,19 +1454,19 @@
         </is>
       </c>
       <c r="C7">
-        <v>-0.2740367342751611</v>
+        <v>-0.2814131706145404</v>
       </c>
       <c r="D7">
-        <v>0.189246033013049</v>
+        <v>0.225837943112434</v>
       </c>
       <c r="E7">
         <v>46</v>
       </c>
       <c r="F7">
-        <v>-1.448044801320963</v>
+        <v>-1.246084545121977</v>
       </c>
       <c r="G7">
-        <v>0.1543865665923889</v>
+        <v>0.2190423676865755</v>
       </c>
     </row>
     <row r="8">
@@ -1481,19 +1481,19 @@
         </is>
       </c>
       <c r="C8">
-        <v>-0.2061802337262109</v>
+        <v>-0.2156823826106236</v>
       </c>
       <c r="D8">
-        <v>0.1841117007154742</v>
+        <v>0.219761674673605</v>
       </c>
       <c r="E8">
         <v>46</v>
       </c>
       <c r="F8">
-        <v>-1.119864913120548</v>
+        <v>-0.9814376548183841</v>
       </c>
       <c r="G8">
-        <v>0.268584561053916</v>
+        <v>0.3315108670730799</v>
       </c>
     </row>
     <row r="9">
@@ -1508,19 +1508,19 @@
         </is>
       </c>
       <c r="C9">
-        <v>-0.5051088969314432</v>
+        <v>-0.5103132370748154</v>
       </c>
       <c r="D9">
-        <v>0.1841298472156126</v>
+        <v>0.219761674673605</v>
       </c>
       <c r="E9">
         <v>46</v>
       </c>
       <c r="F9">
-        <v>-2.74322118097437</v>
+        <v>-2.322121169820643</v>
       </c>
       <c r="G9">
-        <v>0.008642828670054951</v>
+        <v>0.0247070076728994</v>
       </c>
     </row>
     <row r="10">
@@ -1535,19 +1535,19 @@
         </is>
       </c>
       <c r="C10">
-        <v>-0.2613403795233398</v>
+        <v>-0.2140536831287999</v>
       </c>
       <c r="D10">
-        <v>0.303146702609736</v>
+        <v>0.3458741101598105</v>
       </c>
       <c r="E10">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="F10">
-        <v>-0.862092106803429</v>
+        <v>-0.6188774378917716</v>
       </c>
       <c r="G10">
-        <v>0.390274607742824</v>
+        <v>0.5367268800128739</v>
       </c>
     </row>
     <row r="11">
@@ -1562,19 +1562,19 @@
         </is>
       </c>
       <c r="C11">
-        <v>-0.4364715779822473</v>
+        <v>-0.1627356727508728</v>
       </c>
       <c r="D11">
-        <v>0.3011434680658731</v>
+        <v>0.3458741101598108</v>
       </c>
       <c r="E11">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="F11">
-        <v>-1.44938085752128</v>
+        <v>-0.4705055046637659</v>
       </c>
       <c r="G11">
-        <v>0.1497156310801653</v>
+        <v>0.6385251840183974</v>
       </c>
     </row>
     <row r="12">
@@ -1589,19 +1589,19 @@
         </is>
       </c>
       <c r="C12">
-        <v>-0.597870050623993</v>
+        <v>-0.5329626202572253</v>
       </c>
       <c r="D12">
-        <v>0.4257113951171355</v>
+        <v>0.3458741101598107</v>
       </c>
       <c r="E12">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="F12">
-        <v>-1.404402272247112</v>
+        <v>-1.540915045682288</v>
       </c>
       <c r="G12">
-        <v>0.162659363718293</v>
+        <v>0.1249754304592933</v>
       </c>
     </row>
     <row r="13">
@@ -1616,19 +1616,19 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.8304150297316076</v>
+        <v>0.8905225814377239</v>
       </c>
       <c r="D13">
-        <v>0.2680772768541664</v>
+        <v>0.307217416980172</v>
       </c>
       <c r="E13">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="F13">
-        <v>3.097670341464084</v>
+        <v>2.898672185292147</v>
       </c>
       <c r="G13">
-        <v>0.002405209850750318</v>
+        <v>0.004181335920393521</v>
       </c>
     </row>
     <row r="14">
@@ -1643,19 +1643,19 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.4115224307394721</v>
+        <v>0.4853474940341228</v>
       </c>
       <c r="D14">
-        <v>0.2750497570531721</v>
+        <v>0.3072174169801716</v>
       </c>
       <c r="E14">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="F14">
-        <v>1.496174492747934</v>
+        <v>1.579817637961093</v>
       </c>
       <c r="G14">
-        <v>0.1371088259139584</v>
+        <v>0.115786133236821</v>
       </c>
     </row>
     <row r="15">
@@ -1670,19 +1670,19 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.05999329448164502</v>
+        <v>0.2160878911532284</v>
       </c>
       <c r="D15">
-        <v>0.3919639707807479</v>
+        <v>0.3072174169801715</v>
       </c>
       <c r="E15">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="F15">
-        <v>0.1530581863484676</v>
+        <v>0.7033712257504435</v>
       </c>
       <c r="G15">
-        <v>0.8785972359729506</v>
+        <v>0.4826720738788922</v>
       </c>
     </row>
     <row r="16">
@@ -1697,19 +1697,19 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.5235637653906329</v>
+        <v>0.6322865730174333</v>
       </c>
       <c r="D16">
-        <v>0.2598431059181447</v>
+        <v>0.2978289955155854</v>
       </c>
       <c r="E16">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="F16">
-        <v>2.0149226724359</v>
+        <v>2.122985278592009</v>
       </c>
       <c r="G16">
-        <v>0.04604099855535237</v>
+        <v>0.03502941408324451</v>
       </c>
     </row>
     <row r="17">
@@ -1724,19 +1724,19 @@
         </is>
       </c>
       <c r="C17">
-        <v>0.1426969651775795</v>
+        <v>0.2913199801929006</v>
       </c>
       <c r="D17">
-        <v>0.2659335547435294</v>
+        <v>0.2978289955155848</v>
       </c>
       <c r="E17">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="F17">
-        <v>0.536588793073513</v>
+        <v>0.9781451254891544</v>
       </c>
       <c r="G17">
-        <v>0.5924978466219388</v>
+        <v>0.3292270297628656</v>
       </c>
     </row>
     <row r="18">
@@ -1751,19 +1751,19 @@
         </is>
       </c>
       <c r="C18">
-        <v>-0.02640457465503978</v>
+        <v>0.2094244728602919</v>
       </c>
       <c r="D18">
-        <v>0.3620042000267425</v>
+        <v>0.2978289955155849</v>
       </c>
       <c r="E18">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="F18">
-        <v>-0.07293996769399134</v>
+        <v>0.703170195023315</v>
       </c>
       <c r="G18">
-        <v>0.9419695501266661</v>
+        <v>0.4827970487741651</v>
       </c>
     </row>
     <row r="19">
@@ -1778,19 +1778,19 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.5019913426852557</v>
+        <v>0.3983923331959082</v>
       </c>
       <c r="D19">
-        <v>0.2675441996320535</v>
+        <v>0.2978289955155849</v>
       </c>
       <c r="E19">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="F19">
-        <v>1.876293126054055</v>
+        <v>1.337654624615154</v>
       </c>
       <c r="G19">
-        <v>0.06292843408016287</v>
+        <v>0.1825831801896206</v>
       </c>
     </row>
     <row r="20">
@@ -1805,19 +1805,19 @@
         </is>
       </c>
       <c r="C20">
-        <v>0.8244129176943356</v>
+        <v>0.7096400479475881</v>
       </c>
       <c r="D20">
-        <v>0.2717619639176534</v>
+        <v>0.2978289955155852</v>
       </c>
       <c r="E20">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="F20">
-        <v>3.03358463344098</v>
+        <v>2.382709738247944</v>
       </c>
       <c r="G20">
-        <v>0.002935521198179259</v>
+        <v>0.0181567274353179</v>
       </c>
     </row>
     <row r="21">
@@ -1832,19 +1832,19 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.5104034739795219</v>
+        <v>0.4643705598610336</v>
       </c>
       <c r="D21">
-        <v>0.388163548305743</v>
+        <v>0.2978289955155848</v>
       </c>
       <c r="E21">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="F21">
-        <v>1.314918611516543</v>
+        <v>1.55918519302374</v>
       </c>
       <c r="G21">
-        <v>0.190925417017422</v>
+        <v>0.1205908075006414</v>
       </c>
     </row>
   </sheetData>
@@ -1909,19 +1909,19 @@
         </is>
       </c>
       <c r="C2">
-        <v>2.19705969214445</v>
+        <v>2.184706299254971</v>
       </c>
       <c r="D2">
-        <v>0.1514680257944426</v>
+        <v>0.1790013246095344</v>
       </c>
       <c r="E2">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F2">
-        <v>14.50510548758378</v>
+        <v>12.20497280688058</v>
       </c>
       <c r="G2">
-        <v>9.763178013313318e-28</v>
+        <v>2.65153114128359e-23</v>
       </c>
     </row>
     <row r="3">
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C3">
-        <v>-0.3068449266587914</v>
+        <v>-0.3068449266587923</v>
       </c>
       <c r="D3">
-        <v>0.1861237055338339</v>
+        <v>0.2336439968752031</v>
       </c>
       <c r="E3">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F3">
-        <v>-1.648607445132842</v>
+        <v>-1.313301136612075</v>
       </c>
       <c r="G3">
-        <v>0.1019574179354804</v>
+        <v>0.1913947802260156</v>
       </c>
     </row>
     <row r="4">
@@ -1963,19 +1963,19 @@
         </is>
       </c>
       <c r="C4">
-        <v>-0.9863914435636715</v>
+        <v>-1.062771474881541</v>
       </c>
       <c r="D4">
-        <v>0.1905578172979831</v>
+        <v>0.2336439968752034</v>
       </c>
       <c r="E4">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F4">
-        <v>-5.176336807118285</v>
+        <v>-4.548678712465277</v>
       </c>
       <c r="G4">
-        <v>9.715613104486471e-07</v>
+        <v>1.222796568585917e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1990,19 +1990,19 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.3408874652070841</v>
+        <v>0.3769137117661142</v>
       </c>
       <c r="D5">
-        <v>0.2229919067307855</v>
+        <v>0.267161100361225</v>
       </c>
       <c r="E5">
         <v>46</v>
       </c>
       <c r="F5">
-        <v>1.528698822323772</v>
+        <v>1.410810598011814</v>
       </c>
       <c r="G5">
-        <v>0.1331871235668279</v>
+        <v>0.1650278469695308</v>
       </c>
     </row>
     <row r="6">
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="C6">
-        <v>0.1601700575474796</v>
+        <v>0.1725234504369557</v>
       </c>
       <c r="D6">
-        <v>0.1965418313132116</v>
+        <v>0.235849705788693</v>
       </c>
       <c r="E6">
         <v>46</v>
       </c>
       <c r="F6">
-        <v>0.8149413103423794</v>
+        <v>0.731497416373825</v>
       </c>
       <c r="G6">
-        <v>0.4193052852282207</v>
+        <v>0.4681856256684898</v>
       </c>
     </row>
     <row r="7">
@@ -2044,19 +2044,19 @@
         </is>
       </c>
       <c r="C7">
-        <v>-0.01131045595230375</v>
+        <v>-0.0005757979464280787</v>
       </c>
       <c r="D7">
-        <v>0.1917409783101366</v>
+        <v>0.229351140794484</v>
       </c>
       <c r="E7">
         <v>46</v>
       </c>
       <c r="F7">
-        <v>-0.05898820404477829</v>
+        <v>-0.002510551918047956</v>
       </c>
       <c r="G7">
-        <v>0.953217023023697</v>
+        <v>0.9980077277213308</v>
       </c>
     </row>
     <row r="8">
@@ -2071,19 +2071,19 @@
         </is>
       </c>
       <c r="C8">
-        <v>-0.2426793254484033</v>
+        <v>-0.4581761321495183</v>
       </c>
       <c r="D8">
-        <v>0.1973171158484727</v>
+        <v>0.2293511407944841</v>
       </c>
       <c r="E8">
         <v>46</v>
       </c>
       <c r="F8">
-        <v>-1.229894955665002</v>
+        <v>-1.997705921855774</v>
       </c>
       <c r="G8">
-        <v>0.2249896923185015</v>
+        <v>0.05168198151235547</v>
       </c>
     </row>
     <row r="9">
@@ -2098,19 +2098,19 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.3438860028911627</v>
+        <v>0.3438860028911656</v>
       </c>
       <c r="D9">
-        <v>0.2909991872375434</v>
+        <v>0.3652958283771971</v>
       </c>
       <c r="E9">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F9">
-        <v>1.181742142153983</v>
+        <v>0.9413904462551811</v>
       </c>
       <c r="G9">
-        <v>0.2397459453408012</v>
+        <v>0.3482508569220171</v>
       </c>
     </row>
     <row r="10">
@@ -2125,19 +2125,19 @@
         </is>
       </c>
       <c r="C10">
-        <v>-0.3016323789446806</v>
+        <v>-0.3844398122895538</v>
       </c>
       <c r="D10">
-        <v>0.3000032254470881</v>
+        <v>0.3652958283771961</v>
       </c>
       <c r="E10">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F10">
-        <v>-1.005430453273176</v>
+        <v>-1.052406795876656</v>
       </c>
       <c r="G10">
-        <v>0.3168004883563749</v>
+        <v>0.2945651918812555</v>
       </c>
     </row>
     <row r="11">
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="C11">
-        <v>-0.2379805091396905</v>
+        <v>-0.3596422567001924</v>
       </c>
       <c r="D11">
-        <v>0.2612952384755383</v>
+        <v>0.3244684627473874</v>
       </c>
       <c r="E11">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F11">
-        <v>-0.9107724676811115</v>
+        <v>-1.108404353554044</v>
       </c>
       <c r="G11">
-        <v>0.36432036635514</v>
+        <v>0.2697336500291618</v>
       </c>
     </row>
     <row r="12">
@@ -2179,19 +2179,19 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.0034897920492419</v>
+        <v>-0.2341081764110705</v>
       </c>
       <c r="D12">
-        <v>0.2713310807885851</v>
+        <v>0.3244684627473876</v>
       </c>
       <c r="E12">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F12">
-        <v>0.01286174823429486</v>
+        <v>-0.7215128842686126</v>
       </c>
       <c r="G12">
-        <v>0.9897603790260978</v>
+        <v>0.4718896938954018</v>
       </c>
     </row>
     <row r="13">
@@ -2206,19 +2206,19 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.03318223001989359</v>
+        <v>0.03318223001989612</v>
       </c>
       <c r="D13">
-        <v>0.2505767072035671</v>
+        <v>0.314552857342647</v>
       </c>
       <c r="E13">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F13">
-        <v>0.1324234418681882</v>
+        <v>0.1054901560908418</v>
       </c>
       <c r="G13">
-        <v>0.89488079666797</v>
+        <v>0.9161494780571322</v>
       </c>
     </row>
     <row r="14">
@@ -2233,19 +2233,19 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.04331706179704402</v>
+        <v>-0.1088223603280279</v>
       </c>
       <c r="D14">
-        <v>0.2610386924114831</v>
+        <v>0.314552857342647</v>
       </c>
       <c r="E14">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F14">
-        <v>0.1659411537687372</v>
+        <v>-0.3459588993956782</v>
       </c>
       <c r="G14">
-        <v>0.8684946456531581</v>
+        <v>0.7299328521046242</v>
       </c>
     </row>
     <row r="15">
@@ -2260,19 +2260,19 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.01992210954244829</v>
+        <v>0.2410488360042049</v>
       </c>
       <c r="D15">
-        <v>0.2550469441493656</v>
+        <v>0.3145528573426471</v>
       </c>
       <c r="E15">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F15">
-        <v>0.07811153985354598</v>
+        <v>0.7663221947516019</v>
       </c>
       <c r="G15">
-        <v>0.9378750762288051</v>
+        <v>0.4448739022705716</v>
       </c>
     </row>
     <row r="16">
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.4715687465709952</v>
+        <v>0.3908514056333423</v>
       </c>
       <c r="D16">
-        <v>0.2692164573274486</v>
+        <v>0.3145528573426471</v>
       </c>
       <c r="E16">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F16">
-        <v>1.751634172934031</v>
+        <v>1.242561930402629</v>
       </c>
       <c r="G16">
-        <v>0.08250264337083563</v>
+        <v>0.2162659723317668</v>
       </c>
     </row>
   </sheetData>
